--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -387,8 +387,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
